--- a/biology/Botanique/Ips_sexdentatus/Ips_sexdentatus.xlsx
+++ b/biology/Botanique/Ips_sexdentatus/Ips_sexdentatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ips sexdentatus, communément appelé le Sténographe, est une espèce d'insectes ravageurs de l'ordre des coléoptères, et de la sous-famille des Scolytinae. Il s'attaque tout particulièrement aux pins sylvestres, pins maritimes et pins noirs.
 Ce scolyte doit son nom latin aux six excroissances en forme de dents situées à l'arrière des élytres. Mais c'est bien avec ses mandibules qu'il perfore l'écorce.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De couleur brune, sa taille ne dépasse pas le centimètre.
 Dès que la température dépasse les 15 °C, les sténographes se reproduisent. Et plus les conditions météo deviennent favorables, plus le mouvement s'amplifie. Au printemps, il faut six semaines pour créer une génération ; en été, c'est moins de quatre semaines. Durant la période hivernale, l'insecte se met en diapause : son activité et sa croissance s'arrêtent.
@@ -545,7 +559,9 @@
           <t>Ravages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand des scolytes attaquent un arbre, ils émettent des phéromones pour alerter les autres insectes. Mais quand l'arbre est plein, ils émettent d'autres phéromones pour le leur dire. Alors les insectes attaquent l'arbre d'à côté en volant de leurs petites ailes, qui offrent la particularité d'être « repliables ».
 Après la tempête de 2009, l'espèce s'est attaquée de façon très importante à la forêt des Landes de Gascogne. Six, huit, voire dix millions de mètres cubes : le taux de dégâts potentiels qu'on lui prête atteint des sommets vertigineux. Après la tempête de 1999, les scolytes avaient sévi jusqu'en 2004.
